--- a/doc/servicenow/import_service.xlsx
+++ b/doc/servicenow/import_service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/DOCUMENTS_SYNC/4_PROJECTS/1_CLOUDPAKS/2_INSTALL/2_AIOPS/aiops-3.2-ansible/doc/servicenow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/MY_DOCUMENTS/04_PROJECTS/01_IBM/01_AIOPS/01_CODE/cp4waiops-deployer_41/doc/servicenow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21636E38-475F-8949-913E-4DE679C0DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41453D09-69A2-D840-9708-4C56E57D9074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16600" yWindow="580" windowWidth="42980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16600" yWindow="500" windowWidth="42980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Niklaus Hirt</t>
+  </si>
+  <si>
+    <t>SockShop</t>
+  </si>
+  <si>
+    <t>ACME Air</t>
   </si>
 </sst>
 </file>
@@ -86,6 +92,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -432,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,11 +512,63 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I4" s="1"/>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I5" s="1"/>
